--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H2">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I2">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J2">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N2">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P2">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q2">
-        <v>5.343450407837333</v>
+        <v>4.223014212102</v>
       </c>
       <c r="R2">
-        <v>48.091053670536</v>
+        <v>38.007127908918</v>
       </c>
       <c r="S2">
-        <v>0.03279631606873792</v>
+        <v>0.02712901873056448</v>
       </c>
       <c r="T2">
-        <v>0.03279631606873792</v>
+        <v>0.02712901873056448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H3">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I3">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J3">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
         <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P3">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q3">
-        <v>11.72964083952222</v>
+        <v>9.625767012216668</v>
       </c>
       <c r="R3">
-        <v>105.5667675557</v>
+        <v>86.63190310995</v>
       </c>
       <c r="S3">
-        <v>0.07199262255368123</v>
+        <v>0.0618367830309751</v>
       </c>
       <c r="T3">
-        <v>0.07199262255368125</v>
+        <v>0.0618367830309751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H4">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I4">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J4">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N4">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P4">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q4">
-        <v>6.446734584650224</v>
+        <v>5.786010644638666</v>
       </c>
       <c r="R4">
-        <v>58.02061126185201</v>
+        <v>52.074095801748</v>
       </c>
       <c r="S4">
-        <v>0.03956790629877387</v>
+        <v>0.03716984676580495</v>
       </c>
       <c r="T4">
-        <v>0.03956790629877387</v>
+        <v>0.03716984676580495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H5">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I5">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J5">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N5">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P5">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q5">
-        <v>1.531665315144</v>
+        <v>1.637304233</v>
       </c>
       <c r="R5">
-        <v>13.784987836296</v>
+        <v>14.735738097</v>
       </c>
       <c r="S5">
-        <v>0.009400850752410483</v>
+        <v>0.01051818795148697</v>
       </c>
       <c r="T5">
-        <v>0.009400850752410485</v>
+        <v>0.01051818795148697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H6">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I6">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J6">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N6">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P6">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q6">
-        <v>7.769179247947111</v>
+        <v>4.728162418357333</v>
       </c>
       <c r="R6">
-        <v>69.922613231524</v>
+        <v>42.553461765216</v>
       </c>
       <c r="S6">
-        <v>0.04768463048457092</v>
+        <v>0.03037413571594889</v>
       </c>
       <c r="T6">
-        <v>0.04768463048457093</v>
+        <v>0.03037413571594889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
         <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J7">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N7">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P7">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q7">
-        <v>13.98066606531467</v>
+        <v>13.464120541564</v>
       </c>
       <c r="R7">
-        <v>125.825994587832</v>
+        <v>121.177084874076</v>
       </c>
       <c r="S7">
-        <v>0.08580866446463641</v>
+        <v>0.08649470733863714</v>
       </c>
       <c r="T7">
-        <v>0.08580866446463643</v>
+        <v>0.08649470733863714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
         <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J8">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
         <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P8">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q8">
-        <v>30.68956930954444</v>
+        <v>30.68956930954445</v>
       </c>
       <c r="R8">
         <v>276.2061237859</v>
       </c>
       <c r="S8">
-        <v>0.1883623386142033</v>
+        <v>0.1971525215912483</v>
       </c>
       <c r="T8">
-        <v>0.1883623386142033</v>
+        <v>0.1971525215912483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
         <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J9">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N9">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P9">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q9">
-        <v>16.86731167328045</v>
+        <v>18.44737925601511</v>
       </c>
       <c r="R9">
-        <v>151.805805059524</v>
+        <v>166.026413304136</v>
       </c>
       <c r="S9">
-        <v>0.1035259322432283</v>
+        <v>0.1185076043391191</v>
       </c>
       <c r="T9">
-        <v>0.1035259322432283</v>
+        <v>0.1185076043391191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
         <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J10">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N10">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P10">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q10">
-        <v>4.007467022328</v>
+        <v>5.220172239333333</v>
       </c>
       <c r="R10">
-        <v>36.06720320095199</v>
+        <v>46.981550154</v>
       </c>
       <c r="S10">
-        <v>0.02459649572241602</v>
+        <v>0.03353485054627758</v>
       </c>
       <c r="T10">
-        <v>0.02459649572241602</v>
+        <v>0.03353485054627758</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
         <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J11">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N11">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P11">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q11">
-        <v>20.32737133815422</v>
+        <v>15.07467073125689</v>
       </c>
       <c r="R11">
-        <v>182.946342043388</v>
+        <v>135.672036581312</v>
       </c>
       <c r="S11">
-        <v>0.1247626242165369</v>
+        <v>0.09684102493744638</v>
       </c>
       <c r="T11">
-        <v>0.1247626242165369</v>
+        <v>0.09684102493744638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H12">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N12">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P12">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q12">
-        <v>0.379006822368</v>
+        <v>0.5566400110880001</v>
       </c>
       <c r="R12">
-        <v>3.411061401312</v>
+        <v>5.009760099792</v>
       </c>
       <c r="S12">
-        <v>0.002326217441890654</v>
+        <v>0.00357590491732478</v>
       </c>
       <c r="T12">
-        <v>0.002326217441890655</v>
+        <v>0.00357590491732478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H13">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N13">
         <v>23.79245</v>
       </c>
       <c r="O13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P13">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q13">
-        <v>0.8319743915999999</v>
+        <v>1.268782624755556</v>
       </c>
       <c r="R13">
-        <v>7.487769524399999</v>
+        <v>11.4190436228</v>
       </c>
       <c r="S13">
-        <v>0.005106381275287803</v>
+        <v>0.008150772378025058</v>
       </c>
       <c r="T13">
-        <v>0.005106381275287804</v>
+        <v>0.008150772378025058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H14">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N14">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P14">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q14">
-        <v>0.4572619193760001</v>
+        <v>0.762660239256889</v>
       </c>
       <c r="R14">
-        <v>4.115357274384</v>
+        <v>6.863942153312</v>
       </c>
       <c r="S14">
-        <v>0.002806521122018353</v>
+        <v>0.004899397178575535</v>
       </c>
       <c r="T14">
-        <v>0.002806521122018353</v>
+        <v>0.004899397178575535</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H15">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N15">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P15">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q15">
-        <v>0.108639841248</v>
+        <v>0.2158148186666667</v>
       </c>
       <c r="R15">
-        <v>0.9777585712319999</v>
+        <v>1.942333368</v>
       </c>
       <c r="S15">
-        <v>0.0006667951041523701</v>
+        <v>0.001386413581361625</v>
       </c>
       <c r="T15">
-        <v>0.0006667951041523702</v>
+        <v>0.001386413581361625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H16">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N16">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P16">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q16">
-        <v>0.551061900912</v>
+        <v>0.6232241353671112</v>
       </c>
       <c r="R16">
-        <v>4.959557108208</v>
+        <v>5.609017218304</v>
       </c>
       <c r="S16">
-        <v>0.003382234117723221</v>
+        <v>0.00400364725111795</v>
       </c>
       <c r="T16">
-        <v>0.003382234117723221</v>
+        <v>0.00400364725111795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H17">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N17">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P17">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q17">
-        <v>6.126354469858667</v>
+        <v>6.426029116052001</v>
       </c>
       <c r="R17">
-        <v>55.137190228728</v>
+        <v>57.834262044468</v>
       </c>
       <c r="S17">
-        <v>0.037601520030562</v>
+        <v>0.0412813823247244</v>
       </c>
       <c r="T17">
-        <v>0.037601520030562</v>
+        <v>0.0412813823247244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H18">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N18">
         <v>23.79245</v>
       </c>
       <c r="O18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P18">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q18">
-        <v>13.44822766234444</v>
+        <v>14.64722967485556</v>
       </c>
       <c r="R18">
-        <v>121.0340489611</v>
+        <v>131.8250670737</v>
       </c>
       <c r="S18">
-        <v>0.08254073516462204</v>
+        <v>0.09409510559100116</v>
       </c>
       <c r="T18">
-        <v>0.08254073516462204</v>
+        <v>0.09409510559100116</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H19">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N19">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P19">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q19">
-        <v>7.391288067488446</v>
+        <v>8.804392076560889</v>
       </c>
       <c r="R19">
-        <v>66.52159260739602</v>
+        <v>79.239528689048</v>
       </c>
       <c r="S19">
-        <v>0.04536526048055008</v>
+        <v>0.05656019742291236</v>
       </c>
       <c r="T19">
-        <v>0.04536526048055008</v>
+        <v>0.05656019742291236</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H20">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N20">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P20">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q20">
-        <v>1.756079673912</v>
+        <v>2.491434824666666</v>
       </c>
       <c r="R20">
-        <v>15.804717065208</v>
+        <v>22.422913422</v>
       </c>
       <c r="S20">
-        <v>0.01077823122359882</v>
+        <v>0.01600519880578846</v>
       </c>
       <c r="T20">
-        <v>0.01077823122359882</v>
+        <v>0.01600519880578846</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H21">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N21">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P21">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q21">
-        <v>8.907492795850223</v>
+        <v>7.194697398535111</v>
       </c>
       <c r="R21">
-        <v>80.167435162652</v>
+        <v>64.752276586816</v>
       </c>
       <c r="S21">
-        <v>0.05467121930882588</v>
+        <v>0.04621937570710884</v>
       </c>
       <c r="T21">
-        <v>0.05467121930882588</v>
+        <v>0.04621937570710884</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H22">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I22">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J22">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.612892</v>
+        <v>3.479406</v>
       </c>
       <c r="N22">
-        <v>10.838676</v>
+        <v>10.438218</v>
       </c>
       <c r="O22">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="P22">
-        <v>0.1628074729587164</v>
+        <v>0.1624220085658938</v>
       </c>
       <c r="Q22">
-        <v>0.6964788681919999</v>
+        <v>0.61347146889</v>
       </c>
       <c r="R22">
-        <v>6.268309813727999</v>
+        <v>5.521243220010001</v>
       </c>
       <c r="S22">
-        <v>0.004274754952889431</v>
+        <v>0.00394099525464295</v>
       </c>
       <c r="T22">
-        <v>0.004274754952889431</v>
+        <v>0.00394099525464295</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H23">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I23">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J23">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.930816666666666</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N23">
         <v>23.79245</v>
       </c>
       <c r="O23">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="P23">
-        <v>0.3573857784840707</v>
+        <v>0.3702181270503834</v>
       </c>
       <c r="Q23">
-        <v>1.528871113733333</v>
+        <v>1.398321940583334</v>
       </c>
       <c r="R23">
-        <v>13.7598400236</v>
+        <v>12.58489746525</v>
       </c>
       <c r="S23">
-        <v>0.009383700876276229</v>
+        <v>0.008982944459133699</v>
       </c>
       <c r="T23">
-        <v>0.00938370087627623</v>
+        <v>0.008982944459133699</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H24">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I24">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J24">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.358860666666668</v>
+        <v>4.767182666666667</v>
       </c>
       <c r="N24">
-        <v>13.076582</v>
+        <v>14.301548</v>
       </c>
       <c r="O24">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="P24">
-        <v>0.1964230013294464</v>
+        <v>0.2225366582458366</v>
       </c>
       <c r="Q24">
-        <v>0.8402837238773334</v>
+        <v>0.8405258118733333</v>
       </c>
       <c r="R24">
-        <v>7.562553514896001</v>
+        <v>7.56473230686</v>
       </c>
       <c r="S24">
-        <v>0.00515738118487579</v>
+        <v>0.005399612539424676</v>
       </c>
       <c r="T24">
-        <v>0.00515738118487579</v>
+        <v>0.005399612539424676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H25">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I25">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J25">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.035612</v>
+        <v>1.349</v>
       </c>
       <c r="N25">
-        <v>3.106836</v>
+        <v>4.047</v>
       </c>
       <c r="O25">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="P25">
-        <v>0.04666770351444833</v>
+        <v>0.06297261358846615</v>
       </c>
       <c r="Q25">
-        <v>0.199641138912</v>
+        <v>0.237848935</v>
       </c>
       <c r="R25">
-        <v>1.796770250208</v>
+        <v>2.140640415</v>
       </c>
       <c r="S25">
-        <v>0.001225330711870637</v>
+        <v>0.001527962703551508</v>
       </c>
       <c r="T25">
-        <v>0.001225330711870637</v>
+        <v>0.001527962703551508</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H26">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I26">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J26">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.253011333333333</v>
+        <v>3.895605333333334</v>
       </c>
       <c r="N26">
-        <v>15.759034</v>
+        <v>11.686816</v>
       </c>
       <c r="O26">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="P26">
-        <v>0.2367160437133182</v>
+        <v>0.1818505925494202</v>
       </c>
       <c r="Q26">
-        <v>1.012654512794666</v>
+        <v>0.6868536543466667</v>
       </c>
       <c r="R26">
-        <v>9.113890615151998</v>
+        <v>6.18168288912</v>
       </c>
       <c r="S26">
-        <v>0.006215335585661287</v>
+        <v>0.004412408937798127</v>
       </c>
       <c r="T26">
-        <v>0.006215335585661287</v>
+        <v>0.004412408937798127</v>
       </c>
     </row>
   </sheetData>
